--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2290.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2290.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.122547836792191</v>
+        <v>1.180128812789917</v>
       </c>
       <c r="B1">
-        <v>3.736603138368601</v>
+        <v>2.388216733932495</v>
       </c>
       <c r="C1">
-        <v>3.509362565492369</v>
+        <v>3.589848041534424</v>
       </c>
       <c r="D1">
-        <v>3.78150260314659</v>
+        <v>1.971291780471802</v>
       </c>
       <c r="E1">
-        <v>1.250436545605101</v>
+        <v>1.206217288970947</v>
       </c>
     </row>
   </sheetData>
